--- a/Torch runner 2/Torch runner 2/Stage02.xlsx
+++ b/Torch runner 2/Torch runner 2/Stage02.xlsx
@@ -21,6 +21,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -90,105 +99,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -517,7 +428,7 @@
   <dimension ref="A1:GR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+      <selection activeCell="BY14" sqref="BY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -528,7 +439,9 @@
     <col min="32" max="32" width="3" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="2.5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="61" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="58" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="2.5" bestFit="1" customWidth="1"/>
     <col min="62" max="64" width="3.5" bestFit="1" customWidth="1"/>
     <col min="65" max="137" width="2.5" bestFit="1" customWidth="1"/>
     <col min="138" max="182" width="3" bestFit="1" customWidth="1"/>
@@ -3002,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
         <v>0</v>
@@ -3017,202 +2930,202 @@
         <v>0</v>
       </c>
       <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="1">
         <v>7</v>
       </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="1">
-        <v>0</v>
-      </c>
       <c r="CJ5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL5" s="1">
         <v>0</v>
@@ -3224,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="CO5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP5" s="1">
         <v>0</v>
@@ -3233,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="CR5" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CS5" s="1">
         <v>0</v>
@@ -3251,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="CX5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CY5" s="1">
         <v>0</v>
@@ -3601,194 +3514,194 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
         <v>2</v>
       </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="1">
         <v>7</v>
       </c>
-      <c r="Y6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="1">
-        <v>0</v>
-      </c>
       <c r="CC6" s="1">
         <v>0</v>
       </c>
@@ -3799,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="CF6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CG6" s="1">
         <v>0</v>
@@ -3811,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="CJ6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK6" s="1">
         <v>0</v>
@@ -3820,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="CM6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CN6" s="1">
         <v>0</v>
@@ -3835,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="CR6" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CS6" s="1">
         <v>0</v>
@@ -3853,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="CX6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CY6" s="1">
         <v>0</v>
@@ -4203,175 +4116,175 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
         <v>2</v>
       </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
       <c r="W7" s="1">
         <v>0</v>
       </c>
       <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="1">
         <v>7</v>
       </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="1">
-        <v>0</v>
-      </c>
       <c r="BU7" s="1">
         <v>0</v>
       </c>
       <c r="BV7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW7" s="1">
         <v>0</v>
@@ -4401,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="CF7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG7" s="1">
         <v>0</v>
@@ -4413,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="CJ7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL7" s="1">
         <v>0</v>
@@ -4437,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="CR7" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CS7" s="1">
         <v>0</v>
@@ -4455,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="CX7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CY7" s="1">
         <v>0</v>
@@ -4805,104 +4718,104 @@
         <v>0</v>
       </c>
       <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
         <v>2</v>
       </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="1">
         <v>7</v>
       </c>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>0</v>
-      </c>
       <c r="AY8" s="1">
         <v>0</v>
       </c>
@@ -4913,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC8" s="1">
         <v>0</v>
@@ -4925,10 +4838,10 @@
         <v>0</v>
       </c>
       <c r="BF8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BH8" s="1">
         <v>0</v>
@@ -4940,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="BK8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL8" s="1">
         <v>0</v>
       </c>
       <c r="BM8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BN8" s="1">
         <v>0</v>
@@ -4955,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="BP8" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BQ8" s="1">
         <v>0</v>
@@ -4979,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY8" s="1">
         <v>0</v>
@@ -5002,7 +4915,7 @@
       <c r="CE8" s="1">
         <v>0</v>
       </c>
-      <c r="CF8" s="1">
+      <c r="CF8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CG8" s="1">
@@ -5039,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="CR8" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CS8" s="1">
         <v>0</v>
@@ -5057,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="CX8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CY8" s="1">
         <v>0</v>
@@ -5407,242 +5320,242 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="1">
         <v>2</v>
       </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
+      <c r="BO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="1">
+        <v>2</v>
+      </c>
+      <c r="CB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>3</v>
+      </c>
+      <c r="CG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="1">
+        <v>2</v>
+      </c>
+      <c r="CJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="1">
         <v>7</v>
       </c>
-      <c r="Y9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR9" s="1">
-        <v>0</v>
-      </c>
       <c r="CS9" s="1">
         <v>0</v>
       </c>
@@ -5659,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="CX9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CY9" s="1">
         <v>0</v>
@@ -6009,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
@@ -6027,223 +5940,223 @@
         <v>0</v>
       </c>
       <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="1">
+        <v>4</v>
+      </c>
+      <c r="BN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="1">
+        <v>5</v>
+      </c>
+      <c r="CG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR10" s="1">
         <v>7</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR10" s="1">
-        <v>0</v>
       </c>
       <c r="CS10" s="1">
         <v>0</v>
@@ -6561,30 +6474,30 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:GR10">
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>4</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>7</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>5</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
       <formula>6</formula>
       <formula>6</formula>
     </cfRule>

--- a/Torch runner 2/Torch runner 2/Stage02.xlsx
+++ b/Torch runner 2/Torch runner 2/Stage02.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:GR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BY14" sqref="BY14"/>
+      <selection activeCell="BN9" sqref="BN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="BQ7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BR7" s="1">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="BM10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>0</v>

--- a/Torch runner 2/Torch runner 2/Stage02.xlsx
+++ b/Torch runner 2/Torch runner 2/Stage02.xlsx
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BN9" sqref="BN9"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="CC7" sqref="CC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4242,13 +4242,13 @@
         <v>0</v>
       </c>
       <c r="BH7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI7" s="1">
         <v>0</v>
       </c>
       <c r="BJ7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BK7" s="1">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="BK8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="1">
         <v>0</v>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="CN9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CO9" s="1">
         <v>0</v>
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="CR9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CS9" s="1">
         <v>0</v>
@@ -6120,32 +6120,32 @@
         <v>0</v>
       </c>
       <c r="CF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="1">
         <v>5</v>
       </c>
-      <c r="CG10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN10" s="1">
-        <v>0</v>
-      </c>
       <c r="CO10" s="1">
         <v>0</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="CR10" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CS10" s="1">
         <v>0</v>
